--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaabouattour/Desktop/Projet CPP M2QF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50461E-9270-724D-B02A-08AC1AAE2259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF532ACB-F25B-1647-BE81-A217950F13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A344F692-69DE-1B4E-A92C-E8FFE24A7674}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="DeltaVsS" sheetId="7" r:id="rId2"/>
+    <sheet name="PriceVsS" sheetId="6" r:id="rId3"/>
+    <sheet name="Greeks" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">PriceVsS!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PriceVsS!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">PriceVsS!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">PriceVsS!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">PriceVsS!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">PriceVsS!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">PriceVsS!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">PriceVsS!$B$2:$B$101</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,15 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Valeur</t>
   </si>
   <si>
     <t>Type de contrat</t>
-  </si>
-  <si>
-    <t>Call</t>
   </si>
   <si>
     <t>1.0</t>
@@ -61,15 +70,6 @@
   </si>
   <si>
     <t>0.03</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.04</t>
   </si>
   <si>
     <t>NB: Attention aux problèmes de virgule/ point</t>
@@ -106,6 +106,60 @@
   </si>
   <si>
     <t>Date (t_k) (en annee)</t>
+  </si>
+  <si>
+    <t>Option_Price</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P(S</t>
+  </si>
+  <si>
+    <t>T)</t>
+  </si>
+  <si>
+    <t>Delta(S</t>
+  </si>
+  <si>
+    <t>T0)</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>ETAPE 1:</t>
+  </si>
+  <si>
+    <t>ETAPE 3:</t>
+  </si>
+  <si>
+    <t>ETAPE2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g++ -std=c++17 main.cpp EuropeanOption.cpp AmericanOption.cpp Market.cpp Utils.cpp -o option_pricer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./option_pricer  </t>
+  </si>
+  <si>
+    <t>(Terminal)</t>
   </si>
 </sst>
 </file>
@@ -167,12 +221,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -267,45 +336,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -325,7 +398,2959 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Delta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> en fonction de S  à T0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DeltaVsS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta(S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DeltaVsS!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.5152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.030299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.545499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.060600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.575800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.090899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.606099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.121200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.636400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.151499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.666700000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.181799999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.212100000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.242400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.757599999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.2727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.787899999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.818200000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.848500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.363600000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.878799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.393900000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.909099999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.424199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.939400000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.454499999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.969700000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.484800000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101.515</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104.545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.09099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112.121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>115.152</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>116.667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>119.697</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>121.212</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122.727</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>124.242</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125.758</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.273</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>128.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130.303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>131.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>133.333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>136.364</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>139.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>140.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>142.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145.45500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>146.97</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>148.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>151.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>153.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>154.54499999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>156.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>162.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>163.636</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>165.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>166.667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>168.18199999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>169.697</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>172.727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175.75800000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177.273</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>178.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>180.303</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>181.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>183.333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>184.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>186.364</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>187.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>189.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>190.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>192.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>193.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>195.45500000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198.48500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DeltaVsS!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-0.99802500000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5113000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5092099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5062500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5021500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.49668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.48959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.48038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4689300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4550099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.43841</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4184099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.39507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.36886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3392599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.30644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.27078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.23075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1451800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.09754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0495099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.99934199999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.94769499999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.89810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.793597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.74479899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.69562400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.645204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.59684899999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.55215099999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.50907999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.46788800000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.428786</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.39194299999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.35747499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.32544499999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.29378199999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.26373200000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.23794799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.215138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.19459899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.17389099999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.15351500000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.13736100000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.124582</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.109125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.5345799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.69751E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.5740100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.5947599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.9440800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.1563199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.6106800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.9992899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.4590599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0737799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.66144E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.34439E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.0346E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7775800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.54766E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.3425899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.1730900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.01219E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.8704100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.6301800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.3899600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-5.75728E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.8191700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-4.3481400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.6526000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.1226600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.7778799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.2730200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.1129399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.7546599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.39638E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.3518200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.1035999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-8.9992100000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-8.6462799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.9698600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-5.6463699999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.5570299999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-4.4552799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.44285E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.44285E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.8957899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.19244E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.0361399999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.91177E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.4764699999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.16554E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.16554E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.01223E-4</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00E+00">
+                  <c:v>-7.5160799999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>-6.4429299999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0B9-A042-80C9-2AB79AE480AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2017266191"/>
+        <c:axId val="2017456783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2017266191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017456783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2017456783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017266191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de l'option en fonction de S</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PriceVsS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PriceVsS!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.5152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.030299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.545499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.060600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.575800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.090899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.606099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.121200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.636400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.151499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.666700000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.181799999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.212100000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.242400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.757599999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.2727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.787899999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.818200000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.848500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.363600000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.878799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.393900000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.909099999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.424199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.939400000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.454499999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.969700000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.484800000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101.515</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104.545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.09099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112.121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>115.152</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>116.667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>119.697</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>121.212</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122.727</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>124.242</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125.758</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.273</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>128.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130.303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>131.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>133.333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>136.364</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>139.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>140.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>142.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145.45500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>146.97</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>148.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>151.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>153.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>154.54499999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>156.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>162.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>163.636</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>165.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>166.667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>168.18199999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>169.697</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>172.727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175.75800000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177.273</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>178.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>180.303</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>181.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>183.333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>184.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>186.364</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>187.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>189.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>190.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>192.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>193.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>195.45500000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PriceVsS!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>42.315800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.803699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.293199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.785299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.280700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.287399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.8018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.326599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.863900000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.416599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.987100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.579799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.196899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.842099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.5184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.229199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.976900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.767700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.600899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.4773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.405799999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.378299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.4071</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.482900000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6109100000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7929099999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0237200000000009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3033099999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6324699999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0129000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4387699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4206099999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.97282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.56304</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1889400000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.84809</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5380500000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2605300000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.01058</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7846299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5803100000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3954299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2325200000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0884</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95780200000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83923800000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73955199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.64854699999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.56560200000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49706699999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.43370700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37818499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.33057999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28597099999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.25059500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21679000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18911900000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16356100000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.142231</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12286900000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.106679</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.1916100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.9827599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8454200000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.9583799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0713399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4323500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.7933500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2808900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.82952E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4112600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0990000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7867299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.54342E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3321299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.12084E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8119699999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.4156000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.1083300000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.2084100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.30848E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.4791500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.9145100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.34988E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8031100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.45882E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1145399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7702499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.53538E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.33176E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1281500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.4941000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.32857E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.1630299999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.9975000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1385700000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.4942799999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.8499900000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28A0-BC46-988A-DCAF30781A6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1749068656"/>
+        <c:axId val="2017225551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1749068656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017225551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2017225551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749068656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
@@ -335,16 +3360,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>101599</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>88899</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>92929</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>216828</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>413007</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>82600</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>123902</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>92925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -410,6 +3435,156 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>72279</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>211251</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>61952</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>10325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BC2DF1-37FB-6777-B500-1FE8ACAAAF84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+                </a:rPr>
+                <a:t>Importer les résultats</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7A4112-56E0-B673-496B-C98C81F3CFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F23444A-DB80-B9E4-1430-FE348EE26957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -731,10 +3906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14D7863-8A52-734A-B574-8782B5AC3BA9}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,122 +3919,134 @@
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="11">
         <v>45666</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -875,16 +4062,38 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ExportTablesToCSV" altText="Generer les fichiers inputs_x000a_">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>88900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ImportThreeCSV">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>215900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -898,14 +4107,1713 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7539105D-91F4-7940-B3D6-23F3E4D11700}">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A726CB-F0C1-8F4F-9386-3A23B90BF00F}">
+  <sheetPr codeName="Feuil7"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>-0.99802500000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>51.5152</v>
+      </c>
+      <c r="B3">
+        <v>-1.5113000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>53.030299999999997</v>
+      </c>
+      <c r="B4">
+        <v>-1.5092099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>54.545499999999997</v>
+      </c>
+      <c r="B5">
+        <v>-1.5062500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>56.060600000000001</v>
+      </c>
+      <c r="B6">
+        <v>-1.5021500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>57.575800000000001</v>
+      </c>
+      <c r="B7">
+        <v>-1.49668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>59.090899999999998</v>
+      </c>
+      <c r="B8">
+        <v>-1.48959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60.606099999999998</v>
+      </c>
+      <c r="B9">
+        <v>-1.48038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>62.121200000000002</v>
+      </c>
+      <c r="B10">
+        <v>-1.4689300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>63.636400000000002</v>
+      </c>
+      <c r="B11">
+        <v>-1.4550099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>65.151499999999999</v>
+      </c>
+      <c r="B12">
+        <v>-1.43841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B13">
+        <v>-1.4184099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>68.181799999999996</v>
+      </c>
+      <c r="B14">
+        <v>-1.39507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>69.697000000000003</v>
+      </c>
+      <c r="B15">
+        <v>-1.36886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>71.212100000000007</v>
+      </c>
+      <c r="B16">
+        <v>-1.3392599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>72.7273</v>
+      </c>
+      <c r="B17">
+        <v>-1.30644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>74.242400000000004</v>
+      </c>
+      <c r="B18">
+        <v>-1.27078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>75.757599999999996</v>
+      </c>
+      <c r="B19">
+        <v>-1.23075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>77.2727</v>
+      </c>
+      <c r="B20">
+        <v>-1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>78.787899999999993</v>
+      </c>
+      <c r="B21">
+        <v>-1.1451800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>80.302999999999997</v>
+      </c>
+      <c r="B22">
+        <v>-1.09754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="B23">
+        <v>-1.0495099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="B24">
+        <v>-0.99934199999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>84.848500000000001</v>
+      </c>
+      <c r="B25">
+        <v>-0.94769499999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>86.363600000000005</v>
+      </c>
+      <c r="B26">
+        <v>-0.89810000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>87.878799999999998</v>
+      </c>
+      <c r="B27">
+        <v>-0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89.393900000000002</v>
+      </c>
+      <c r="B28">
+        <v>-0.793597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="B29">
+        <v>-0.74479899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>92.424199999999999</v>
+      </c>
+      <c r="B30">
+        <v>-0.69562400000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>93.939400000000006</v>
+      </c>
+      <c r="B31">
+        <v>-0.645204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="B32">
+        <v>-0.59684899999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>96.969700000000003</v>
+      </c>
+      <c r="B33">
+        <v>-0.55215099999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>98.484800000000007</v>
+      </c>
+      <c r="B34">
+        <v>-0.50907999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>-0.46788800000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>101.515</v>
+      </c>
+      <c r="B36">
+        <v>-0.428786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>103.03</v>
+      </c>
+      <c r="B37">
+        <v>-0.39194299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>104.545</v>
+      </c>
+      <c r="B38">
+        <v>-0.35747499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>106.06100000000001</v>
+      </c>
+      <c r="B39">
+        <v>-0.32544499999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>107.57599999999999</v>
+      </c>
+      <c r="B40">
+        <v>-0.29378199999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>109.09099999999999</v>
+      </c>
+      <c r="B41">
+        <v>-0.26373200000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>110.60599999999999</v>
+      </c>
+      <c r="B42">
+        <v>-0.23794799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>112.121</v>
+      </c>
+      <c r="B43">
+        <v>-0.215138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>113.636</v>
+      </c>
+      <c r="B44">
+        <v>-0.19459899999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>115.152</v>
+      </c>
+      <c r="B45">
+        <v>-0.17389099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>116.667</v>
+      </c>
+      <c r="B46">
+        <v>-0.15351500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>118.182</v>
+      </c>
+      <c r="B47">
+        <v>-0.13736100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>119.697</v>
+      </c>
+      <c r="B48">
+        <v>-0.124582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>121.212</v>
+      </c>
+      <c r="B49">
+        <v>-0.109125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>122.727</v>
+      </c>
+      <c r="B50">
+        <v>-9.5345799999999994E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>124.242</v>
+      </c>
+      <c r="B51">
+        <v>-8.69751E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>125.758</v>
+      </c>
+      <c r="B52">
+        <v>-7.5740100000000005E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>127.273</v>
+      </c>
+      <c r="B53">
+        <v>-6.5947599999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>128.78800000000001</v>
+      </c>
+      <c r="B54">
+        <v>-5.9440800000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>130.303</v>
+      </c>
+      <c r="B55">
+        <v>-5.1563199999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>131.81800000000001</v>
+      </c>
+      <c r="B56">
+        <v>-4.6106800000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>133.333</v>
+      </c>
+      <c r="B57">
+        <v>-3.9992899999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>134.84800000000001</v>
+      </c>
+      <c r="B58">
+        <v>-3.4590599999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>136.364</v>
+      </c>
+      <c r="B59">
+        <v>-3.0737799999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>137.87899999999999</v>
+      </c>
+      <c r="B60">
+        <v>-2.66144E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>139.39400000000001</v>
+      </c>
+      <c r="B61">
+        <v>-2.34439E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>140.90899999999999</v>
+      </c>
+      <c r="B62">
+        <v>-2.0346E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>142.42400000000001</v>
+      </c>
+      <c r="B63">
+        <v>-1.7775800000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>143.93899999999999</v>
+      </c>
+      <c r="B64">
+        <v>-1.54766E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>145.45500000000001</v>
+      </c>
+      <c r="B65">
+        <v>-1.3425899999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>146.97</v>
+      </c>
+      <c r="B66">
+        <v>-1.1730900000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>148.48500000000001</v>
+      </c>
+      <c r="B67">
+        <v>-1.01219E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>-8.8704100000000004E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>151.51499999999999</v>
+      </c>
+      <c r="B69">
+        <v>-7.6301800000000003E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>153.03</v>
+      </c>
+      <c r="B70">
+        <v>-6.3899600000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>154.54499999999999</v>
+      </c>
+      <c r="B71">
+        <v>-5.75728E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>156.06100000000001</v>
+      </c>
+      <c r="B72">
+        <v>-4.8191700000000002E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>157.57599999999999</v>
+      </c>
+      <c r="B73">
+        <v>-4.3481400000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>159.09100000000001</v>
+      </c>
+      <c r="B74">
+        <v>-3.6526000000000002E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>160.60599999999999</v>
+      </c>
+      <c r="B75">
+        <v>-3.1226600000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>162.12100000000001</v>
+      </c>
+      <c r="B76">
+        <v>-2.7778799999999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>163.636</v>
+      </c>
+      <c r="B77">
+        <v>-2.2730200000000002E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>165.15199999999999</v>
+      </c>
+      <c r="B78">
+        <v>-2.1129399999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>166.667</v>
+      </c>
+      <c r="B79">
+        <v>-1.7546599999999999E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>168.18199999999999</v>
+      </c>
+      <c r="B80">
+        <v>-1.39638E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>169.697</v>
+      </c>
+      <c r="B81">
+        <v>-1.3518200000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>171.21199999999999</v>
+      </c>
+      <c r="B82">
+        <v>-1.1035999999999999E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>172.727</v>
+      </c>
+      <c r="B83">
+        <v>-8.9992100000000003E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>174.24199999999999</v>
+      </c>
+      <c r="B84">
+        <v>-8.6462799999999999E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>175.75800000000001</v>
+      </c>
+      <c r="B85">
+        <v>-6.9698600000000002E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>177.273</v>
+      </c>
+      <c r="B86">
+        <v>-5.6463699999999999E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>178.78800000000001</v>
+      </c>
+      <c r="B87">
+        <v>-5.5570299999999995E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>180.303</v>
+      </c>
+      <c r="B88">
+        <v>-4.4552799999999999E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>181.81800000000001</v>
+      </c>
+      <c r="B89">
+        <v>-3.44285E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>183.333</v>
+      </c>
+      <c r="B90">
+        <v>-3.44285E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>184.84800000000001</v>
+      </c>
+      <c r="B91">
+        <v>-2.8957899999999999E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>186.364</v>
+      </c>
+      <c r="B92">
+        <v>-2.19244E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>187.87899999999999</v>
+      </c>
+      <c r="B93">
+        <v>-2.0361399999999999E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>189.39400000000001</v>
+      </c>
+      <c r="B94">
+        <v>-1.91177E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>190.90899999999999</v>
+      </c>
+      <c r="B95">
+        <v>-1.4764699999999999E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>192.42400000000001</v>
+      </c>
+      <c r="B96">
+        <v>-1.16554E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>193.93899999999999</v>
+      </c>
+      <c r="B97">
+        <v>-1.16554E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>195.45500000000001</v>
+      </c>
+      <c r="B98">
+        <v>-1.01223E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>196.97</v>
+      </c>
+      <c r="B99" s="14">
+        <v>-7.5160799999999994E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>198.48500000000001</v>
+      </c>
+      <c r="B100" s="14">
+        <v>-6.4429299999999997E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>200</v>
+      </c>
+      <c r="B101" s="14">
+        <v>-4.25234E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6773D7E-4EF2-7748-B91A-0FE541B68859}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>42.315800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>51.5152</v>
+      </c>
+      <c r="B3">
+        <v>40.803699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>53.030299999999997</v>
+      </c>
+      <c r="B4">
+        <v>39.293199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>54.545499999999997</v>
+      </c>
+      <c r="B5">
+        <v>37.785299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>56.060600000000001</v>
+      </c>
+      <c r="B6">
+        <v>36.280700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>57.575800000000001</v>
+      </c>
+      <c r="B7">
+        <v>34.780999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>59.090899999999998</v>
+      </c>
+      <c r="B8">
+        <v>33.287399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60.606099999999998</v>
+      </c>
+      <c r="B9">
+        <v>31.8018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>62.121200000000002</v>
+      </c>
+      <c r="B10">
+        <v>30.326599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>63.636400000000002</v>
+      </c>
+      <c r="B11">
+        <v>28.863900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>65.151499999999999</v>
+      </c>
+      <c r="B12">
+        <v>27.416599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B13">
+        <v>25.987100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>68.181799999999996</v>
+      </c>
+      <c r="B14">
+        <v>24.579799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>69.697000000000003</v>
+      </c>
+      <c r="B15">
+        <v>23.196899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>71.212100000000007</v>
+      </c>
+      <c r="B16">
+        <v>21.842099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>72.7273</v>
+      </c>
+      <c r="B17">
+        <v>20.5184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>74.242400000000004</v>
+      </c>
+      <c r="B18">
+        <v>19.229199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>75.757599999999996</v>
+      </c>
+      <c r="B19">
+        <v>17.976900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>77.2727</v>
+      </c>
+      <c r="B20">
+        <v>16.767700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>78.787899999999993</v>
+      </c>
+      <c r="B21">
+        <v>15.600899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>80.302999999999997</v>
+      </c>
+      <c r="B22">
+        <v>14.4773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="B23">
+        <v>13.405799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="B24">
+        <v>12.378299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>84.848500000000001</v>
+      </c>
+      <c r="B25">
+        <v>11.4071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>86.363600000000005</v>
+      </c>
+      <c r="B26">
+        <v>10.482900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>87.878799999999998</v>
+      </c>
+      <c r="B27">
+        <v>9.6109100000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89.393900000000002</v>
+      </c>
+      <c r="B28">
+        <v>8.7929099999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="B29">
+        <v>8.0237200000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>92.424199999999999</v>
+      </c>
+      <c r="B30">
+        <v>7.3033099999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>93.939400000000006</v>
+      </c>
+      <c r="B31">
+        <v>6.6324699999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="B32">
+        <v>6.0129000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>96.969700000000003</v>
+      </c>
+      <c r="B33">
+        <v>5.4387699999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>98.484800000000007</v>
+      </c>
+      <c r="B34">
+        <v>4.9085999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>4.4206099999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>101.515</v>
+      </c>
+      <c r="B36">
+        <v>3.97282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>103.03</v>
+      </c>
+      <c r="B37">
+        <v>3.56304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>104.545</v>
+      </c>
+      <c r="B38">
+        <v>3.1889400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>106.06100000000001</v>
+      </c>
+      <c r="B39">
+        <v>2.84809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>107.57599999999999</v>
+      </c>
+      <c r="B40">
+        <v>2.5380500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>109.09099999999999</v>
+      </c>
+      <c r="B41">
+        <v>2.2605300000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>110.60599999999999</v>
+      </c>
+      <c r="B42">
+        <v>2.01058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>112.121</v>
+      </c>
+      <c r="B43">
+        <v>1.7846299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>113.636</v>
+      </c>
+      <c r="B44">
+        <v>1.5803100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>115.152</v>
+      </c>
+      <c r="B45">
+        <v>1.3954299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>116.667</v>
+      </c>
+      <c r="B46">
+        <v>1.2325200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>118.182</v>
+      </c>
+      <c r="B47">
+        <v>1.0884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>119.697</v>
+      </c>
+      <c r="B48">
+        <v>0.95780200000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>121.212</v>
+      </c>
+      <c r="B49">
+        <v>0.83923800000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>122.727</v>
+      </c>
+      <c r="B50">
+        <v>0.73955199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>124.242</v>
+      </c>
+      <c r="B51">
+        <v>0.64854699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>125.758</v>
+      </c>
+      <c r="B52">
+        <v>0.56560200000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>127.273</v>
+      </c>
+      <c r="B53">
+        <v>0.49706699999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>128.78800000000001</v>
+      </c>
+      <c r="B54">
+        <v>0.43370700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>130.303</v>
+      </c>
+      <c r="B55">
+        <v>0.37818499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>131.81800000000001</v>
+      </c>
+      <c r="B56">
+        <v>0.33057999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>133.333</v>
+      </c>
+      <c r="B57">
+        <v>0.28597099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>134.84800000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.25059500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>136.364</v>
+      </c>
+      <c r="B59">
+        <v>0.21679000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>137.87899999999999</v>
+      </c>
+      <c r="B60">
+        <v>0.18911900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>139.39400000000001</v>
+      </c>
+      <c r="B61">
+        <v>0.16356100000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>140.90899999999999</v>
+      </c>
+      <c r="B62">
+        <v>0.142231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>142.42400000000001</v>
+      </c>
+      <c r="B63">
+        <v>0.12286900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>143.93899999999999</v>
+      </c>
+      <c r="B64">
+        <v>0.106679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>145.45500000000001</v>
+      </c>
+      <c r="B65">
+        <v>9.1916100000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>146.97</v>
+      </c>
+      <c r="B66">
+        <v>7.9827599999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>148.48500000000001</v>
+      </c>
+      <c r="B67">
+        <v>6.8454200000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>5.9583799999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>151.51499999999999</v>
+      </c>
+      <c r="B69">
+        <v>5.0713399999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>153.03</v>
+      </c>
+      <c r="B70">
+        <v>4.4323500000000002E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>154.54499999999999</v>
+      </c>
+      <c r="B71">
+        <v>3.7933500000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>156.06100000000001</v>
+      </c>
+      <c r="B72">
+        <v>3.2808900000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>157.57599999999999</v>
+      </c>
+      <c r="B73">
+        <v>2.82952E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>159.09100000000001</v>
+      </c>
+      <c r="B74">
+        <v>2.4112600000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>160.60599999999999</v>
+      </c>
+      <c r="B75">
+        <v>2.0990000000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>162.12100000000001</v>
+      </c>
+      <c r="B76">
+        <v>1.7867299999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>163.636</v>
+      </c>
+      <c r="B77">
+        <v>1.54342E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>165.15199999999999</v>
+      </c>
+      <c r="B78">
+        <v>1.3321299999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>166.667</v>
+      </c>
+      <c r="B79">
+        <v>1.12084E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>168.18199999999999</v>
+      </c>
+      <c r="B80">
+        <v>9.8119699999999997E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>169.697</v>
+      </c>
+      <c r="B81">
+        <v>8.4156000000000005E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>171.21199999999999</v>
+      </c>
+      <c r="B82">
+        <v>7.1083300000000004E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>172.727</v>
+      </c>
+      <c r="B83">
+        <v>6.2084100000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>174.24199999999999</v>
+      </c>
+      <c r="B84">
+        <v>5.30848E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>175.75800000000001</v>
+      </c>
+      <c r="B85">
+        <v>4.4791500000000003E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>177.273</v>
+      </c>
+      <c r="B86">
+        <v>3.9145100000000004E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>178.78800000000001</v>
+      </c>
+      <c r="B87">
+        <v>3.34988E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>180.303</v>
+      </c>
+      <c r="B88">
+        <v>2.8031100000000002E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>181.81800000000001</v>
+      </c>
+      <c r="B89">
+        <v>2.45882E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>183.333</v>
+      </c>
+      <c r="B90">
+        <v>2.1145399999999998E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>184.84800000000001</v>
+      </c>
+      <c r="B91">
+        <v>1.7702499999999999E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>186.364</v>
+      </c>
+      <c r="B92">
+        <v>1.53538E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>187.87899999999999</v>
+      </c>
+      <c r="B93">
+        <v>1.33176E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>189.39400000000001</v>
+      </c>
+      <c r="B94">
+        <v>1.1281500000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>190.90899999999999</v>
+      </c>
+      <c r="B95">
+        <v>9.4941000000000003E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>192.42400000000001</v>
+      </c>
+      <c r="B96">
+        <v>8.32857E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>193.93899999999999</v>
+      </c>
+      <c r="B97">
+        <v>7.1630299999999995E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>195.45500000000001</v>
+      </c>
+      <c r="B98">
+        <v>5.9975000000000002E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>196.97</v>
+      </c>
+      <c r="B99">
+        <v>5.1385700000000005E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>198.48500000000001</v>
+      </c>
+      <c r="B100">
+        <v>4.4942799999999998E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>200</v>
+      </c>
+      <c r="B101">
+        <v>3.8499900000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE7443-3CA8-AA40-BF07-5EC0F2C61B38}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.1088900000000002</v>
+      </c>
+      <c r="B2">
+        <v>-0.16524900000000001</v>
+      </c>
+      <c r="C2">
+        <v>6.0668199999999997E-3</v>
+      </c>
+      <c r="D2">
+        <v>-20.226900000000001</v>
+      </c>
+      <c r="E2">
+        <v>27.247</v>
+      </c>
+      <c r="F2">
+        <v>-1.1066199999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaabouattour/Desktop/Projet CPP M2QF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF532ACB-F25B-1647-BE81-A217950F13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764B3A3C-2DCB-644C-9A67-BF97B5D130B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A344F692-69DE-1B4E-A92C-E8FFE24A7674}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlchart.v1.6" hidden="1">PriceVsS!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">PriceVsS!$B$2:$B$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +102,6 @@
     <t>Discretisation (spot)</t>
   </si>
   <si>
-    <t>europeen</t>
-  </si>
-  <si>
     <t>Date (t_k) (en annee)</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>T)</t>
   </si>
   <si>
-    <t>Delta(S</t>
-  </si>
-  <si>
     <t>T0)</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>(Terminal)</t>
+  </si>
+  <si>
+    <t>Delta(S)</t>
+  </si>
+  <si>
+    <t>american</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -377,7 +377,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,7 +486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Delta(S</c:v>
+                  <c:v>Delta(S)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -521,301 +520,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.5152</c:v>
+                  <c:v>31.717199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.030299999999997</c:v>
+                  <c:v>33.4343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.545499999999997</c:v>
+                  <c:v>35.151499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.060600000000001</c:v>
+                  <c:v>36.868699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.575800000000001</c:v>
+                  <c:v>38.585900000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.090899999999998</c:v>
+                  <c:v>40.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.606099999999998</c:v>
+                  <c:v>42.020200000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.121200000000002</c:v>
+                  <c:v>43.737400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.636400000000002</c:v>
+                  <c:v>45.454500000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.151499999999999</c:v>
+                  <c:v>47.171700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.666700000000006</c:v>
+                  <c:v>48.8889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.181799999999996</c:v>
+                  <c:v>50.606099999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.697000000000003</c:v>
+                  <c:v>52.3232</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>54.040399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.757599999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.474699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.191899999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.909100000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.626300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.343400000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.060599999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.777799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.494900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>71.212100000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>72.7273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>74.242400000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75.757599999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.2727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78.787899999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.302999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81.818200000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>83.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84.848500000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>86.363600000000005</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.878799999999998</c:v>
+                  <c:v>72.929299999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89.393900000000002</c:v>
+                  <c:v>74.646500000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90.909099999999995</c:v>
+                  <c:v>76.363600000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92.424199999999999</c:v>
+                  <c:v>78.080799999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93.939400000000006</c:v>
+                  <c:v>79.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.454499999999996</c:v>
+                  <c:v>81.515199999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>83.232299999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.9495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86.666700000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88.383799999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.818200000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.535399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.252499999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>96.969700000000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>98.484800000000007</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>101.515</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>103.03</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>104.545</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.06100000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107.57599999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>109.09099999999999</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>110.60599999999999</c:v>
+                  <c:v>98.686899999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>112.121</c:v>
+                  <c:v>100.404</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>113.636</c:v>
+                  <c:v>102.121</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>115.152</c:v>
+                  <c:v>103.83799999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>116.667</c:v>
+                  <c:v>105.556</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>118.182</c:v>
+                  <c:v>107.273</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>119.697</c:v>
+                  <c:v>108.99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>121.212</c:v>
+                  <c:v>110.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>112.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>114.14100000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115.85899999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>117.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>119.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>122.727</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>124.242</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>125.758</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>127.273</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>128.78800000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>130.303</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>131.81800000000001</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>133.333</c:v>
+                  <c:v>124.444</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134.84800000000001</c:v>
+                  <c:v>126.16200000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>136.364</c:v>
+                  <c:v>127.879</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>137.87899999999999</c:v>
+                  <c:v>129.596</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>139.39400000000001</c:v>
+                  <c:v>131.31299999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>140.90899999999999</c:v>
+                  <c:v>133.03</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>142.42400000000001</c:v>
+                  <c:v>134.74700000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143.93899999999999</c:v>
+                  <c:v>136.465</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>145.45500000000001</c:v>
+                  <c:v>138.18199999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>146.97</c:v>
+                  <c:v>139.899</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>141.61600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>143.333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>145.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>146.768</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>148.48500000000001</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>151.51499999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>153.03</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>154.54499999999999</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>156.06100000000001</c:v>
+                  <c:v>150.202</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>157.57599999999999</c:v>
+                  <c:v>151.91900000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>159.09100000000001</c:v>
+                  <c:v>153.636</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>160.60599999999999</c:v>
+                  <c:v>155.35400000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>162.12100000000001</c:v>
+                  <c:v>157.071</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>163.636</c:v>
+                  <c:v>158.78800000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>165.15199999999999</c:v>
+                  <c:v>160.505</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>166.667</c:v>
+                  <c:v>162.22200000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>168.18199999999999</c:v>
+                  <c:v>163.93899999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>169.697</c:v>
+                  <c:v>165.65700000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>171.21199999999999</c:v>
+                  <c:v>167.374</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>172.727</c:v>
+                  <c:v>169.09100000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>170.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>172.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>174.24199999999999</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>175.75800000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>177.273</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>178.78800000000001</c:v>
+                  <c:v>175.96</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>180.303</c:v>
+                  <c:v>177.67699999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>181.81800000000001</c:v>
+                  <c:v>179.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>183.333</c:v>
+                  <c:v>181.11099999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>184.84800000000001</c:v>
+                  <c:v>182.828</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>186.364</c:v>
+                  <c:v>184.54499999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>187.87899999999999</c:v>
+                  <c:v>186.26300000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>189.39400000000001</c:v>
+                  <c:v>187.98</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>190.90899999999999</c:v>
+                  <c:v>189.697</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>192.42400000000001</c:v>
+                  <c:v>191.41399999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>193.93899999999999</c:v>
+                  <c:v>193.131</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>195.45500000000001</c:v>
+                  <c:v>194.84800000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196.97</c:v>
+                  <c:v>196.566</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198.48500000000001</c:v>
+                  <c:v>198.28299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,301 +826,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.99802500000000005</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5113000000000001</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5092099999999999</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5062500000000001</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5021500000000001</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.49668</c:v>
+                  <c:v>-0.99999899999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.48959</c:v>
+                  <c:v>-0.99999800000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.48038</c:v>
+                  <c:v>-0.99999400000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4689300000000001</c:v>
+                  <c:v>-0.99998500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4550099999999999</c:v>
+                  <c:v>-0.99996499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.43841</c:v>
+                  <c:v>-0.99992599999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.4184099999999999</c:v>
+                  <c:v>-0.99985000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.39507</c:v>
+                  <c:v>-0.99971500000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.36886</c:v>
+                  <c:v>-0.99948099999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.3392599999999999</c:v>
+                  <c:v>-0.99909400000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.30644</c:v>
+                  <c:v>-0.99847699999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.27078</c:v>
+                  <c:v>-0.99754799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.23075</c:v>
+                  <c:v>-0.99616700000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.1879999999999999</c:v>
+                  <c:v>-0.99419199999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.1451800000000001</c:v>
+                  <c:v>-0.99146699999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.09754</c:v>
+                  <c:v>-0.987846</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.0495099999999999</c:v>
+                  <c:v>-0.98297199999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.99934199999999995</c:v>
+                  <c:v>-0.97684700000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.94769499999999995</c:v>
+                  <c:v>-0.96901599999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.89810000000000001</c:v>
+                  <c:v>-0.95939600000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.84499999999999997</c:v>
+                  <c:v>-0.94816</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.793597</c:v>
+                  <c:v>-0.93472999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.74479899999999999</c:v>
+                  <c:v>-0.91896599999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.69562400000000002</c:v>
+                  <c:v>-0.90082399999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.645204</c:v>
+                  <c:v>-0.88038799999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.59684899999999996</c:v>
+                  <c:v>-0.85790699999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.55215099999999995</c:v>
+                  <c:v>-0.83302799999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.50907999999999998</c:v>
+                  <c:v>-0.80637199999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.46788800000000003</c:v>
+                  <c:v>-0.77849699999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.428786</c:v>
+                  <c:v>-0.74730399999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.39194299999999999</c:v>
+                  <c:v>-0.71598200000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.35747499999999999</c:v>
+                  <c:v>-0.68383899999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.32544499999999998</c:v>
+                  <c:v>-0.64771199999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.29378199999999999</c:v>
+                  <c:v>-0.61525300000000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.26373200000000002</c:v>
+                  <c:v>-0.58274300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.23794799999999999</c:v>
+                  <c:v>-0.54695300000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.215138</c:v>
+                  <c:v>-0.51039400000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.19459899999999999</c:v>
+                  <c:v>-0.476134</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.17389099999999999</c:v>
+                  <c:v>-0.44371100000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.15351500000000001</c:v>
+                  <c:v>-0.41192000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.13736100000000001</c:v>
+                  <c:v>-0.38101000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.124582</c:v>
+                  <c:v>-0.35120400000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.109125</c:v>
+                  <c:v>-0.32270100000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-9.5345799999999994E-2</c:v>
+                  <c:v>-0.29566300000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.69751E-2</c:v>
+                  <c:v>-0.27021400000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-7.5740100000000005E-2</c:v>
+                  <c:v>-0.246258</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-6.5947599999999995E-2</c:v>
+                  <c:v>-0.22347600000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5.9440800000000002E-2</c:v>
+                  <c:v>-0.20253699999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.1563199999999997E-2</c:v>
+                  <c:v>-0.18340999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.6106800000000003E-2</c:v>
+                  <c:v>-0.16602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.9992899999999998E-2</c:v>
+                  <c:v>-0.146868</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.4590599999999999E-2</c:v>
+                  <c:v>-0.13256299999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.0737799999999999E-2</c:v>
+                  <c:v>-0.11978999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.66144E-2</c:v>
+                  <c:v>-0.107306</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.34439E-2</c:v>
+                  <c:v>-9.3744599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-2.0346E-2</c:v>
+                  <c:v>-8.4996299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.7775800000000001E-2</c:v>
+                  <c:v>-7.5094900000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.54766E-2</c:v>
+                  <c:v>-6.5640100000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.3425899999999999E-2</c:v>
+                  <c:v>-5.9975500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.1730900000000001E-2</c:v>
+                  <c:v>-5.0008299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.01219E-2</c:v>
+                  <c:v>-4.6135599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.8704100000000004E-3</c:v>
+                  <c:v>-3.9978E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-7.6301800000000003E-3</c:v>
+                  <c:v>-3.5210699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-6.3899600000000001E-3</c:v>
+                  <c:v>-3.1487500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-5.75728E-3</c:v>
+                  <c:v>-2.6757900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-4.8191700000000002E-3</c:v>
+                  <c:v>-2.4410999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-4.3481400000000003E-3</c:v>
+                  <c:v>-2.03378E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.6526000000000002E-3</c:v>
+                  <c:v>-1.8608900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.1226600000000002E-3</c:v>
+                  <c:v>-1.55356E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.7778799999999999E-3</c:v>
+                  <c:v>-1.3933900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.2730200000000002E-3</c:v>
+                  <c:v>-1.1978300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.1129399999999998E-3</c:v>
+                  <c:v>-1.02361E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.7546599999999999E-3</c:v>
+                  <c:v>-9.3462000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.39638E-3</c:v>
+                  <c:v>-7.36821E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.3518200000000001E-3</c:v>
+                  <c:v>-7.36821E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.1035999999999999E-3</c:v>
+                  <c:v>-5.5090199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-8.9992100000000003E-4</c:v>
+                  <c:v>-5.1899900000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-8.6462799999999999E-4</c:v>
+                  <c:v>-4.4878699999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-6.9698600000000002E-4</c:v>
+                  <c:v>-3.5720399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-5.6463699999999999E-4</c:v>
+                  <c:v>-3.5720399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-5.5570299999999995E-4</c:v>
+                  <c:v>-2.6795199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-4.4552799999999999E-4</c:v>
+                  <c:v>-2.3984399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-3.44285E-4</c:v>
+                  <c:v>-2.3097299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-3.44285E-4</c:v>
+                  <c:v>-1.5971099999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.8957899999999999E-4</c:v>
+                  <c:v>-1.5684500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.19244E-4</c:v>
+                  <c:v>-1.46553E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.0361399999999999E-4</c:v>
+                  <c:v>-9.9710300000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.91177E-4</c:v>
+                  <c:v>-9.9710300000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.4764699999999999E-4</c:v>
+                  <c:v>-9.5492400000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.16554E-4</c:v>
+                  <c:v>-6.2686199999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.16554E-4</c:v>
+                  <c:v>-6.15008E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.01223E-4</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>-7.5160799999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>-6.4429299999999997E-5</c:v>
+                  <c:v>-6.15008E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-4.3077099999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.6724799999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,301 +1435,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.5152</c:v>
+                  <c:v>31.717199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.030299999999997</c:v>
+                  <c:v>33.4343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.545499999999997</c:v>
+                  <c:v>35.151499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.060600000000001</c:v>
+                  <c:v>36.868699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.575800000000001</c:v>
+                  <c:v>38.585900000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.090899999999998</c:v>
+                  <c:v>40.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.606099999999998</c:v>
+                  <c:v>42.020200000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.121200000000002</c:v>
+                  <c:v>43.737400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.636400000000002</c:v>
+                  <c:v>45.454500000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.151499999999999</c:v>
+                  <c:v>47.171700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.666700000000006</c:v>
+                  <c:v>48.8889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.181799999999996</c:v>
+                  <c:v>50.606099999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.697000000000003</c:v>
+                  <c:v>52.3232</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>54.040399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.757599999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.474699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.191899999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60.909100000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.626300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.343400000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.060599999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.777799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.494900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>71.212100000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>72.7273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>74.242400000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75.757599999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.2727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78.787899999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.302999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>81.818200000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>83.333299999999994</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84.848500000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>86.363600000000005</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.878799999999998</c:v>
+                  <c:v>72.929299999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89.393900000000002</c:v>
+                  <c:v>74.646500000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90.909099999999995</c:v>
+                  <c:v>76.363600000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92.424199999999999</c:v>
+                  <c:v>78.080799999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93.939400000000006</c:v>
+                  <c:v>79.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.454499999999996</c:v>
+                  <c:v>81.515199999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>83.232299999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.9495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86.666700000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88.383799999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.818200000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.535399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.252499999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>96.969700000000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>98.484800000000007</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>101.515</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>103.03</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>104.545</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.06100000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107.57599999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>109.09099999999999</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>110.60599999999999</c:v>
+                  <c:v>98.686899999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>112.121</c:v>
+                  <c:v>100.404</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>113.636</c:v>
+                  <c:v>102.121</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>115.152</c:v>
+                  <c:v>103.83799999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>116.667</c:v>
+                  <c:v>105.556</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>118.182</c:v>
+                  <c:v>107.273</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>119.697</c:v>
+                  <c:v>108.99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>121.212</c:v>
+                  <c:v>110.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>112.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>114.14100000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115.85899999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>117.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>119.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>122.727</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>124.242</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>125.758</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>127.273</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>128.78800000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>130.303</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>131.81800000000001</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>133.333</c:v>
+                  <c:v>124.444</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134.84800000000001</c:v>
+                  <c:v>126.16200000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>136.364</c:v>
+                  <c:v>127.879</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>137.87899999999999</c:v>
+                  <c:v>129.596</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>139.39400000000001</c:v>
+                  <c:v>131.31299999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>140.90899999999999</c:v>
+                  <c:v>133.03</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>142.42400000000001</c:v>
+                  <c:v>134.74700000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143.93899999999999</c:v>
+                  <c:v>136.465</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>145.45500000000001</c:v>
+                  <c:v>138.18199999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>146.97</c:v>
+                  <c:v>139.899</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>141.61600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>143.333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>145.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>146.768</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>148.48500000000001</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>151.51499999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>153.03</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>154.54499999999999</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>156.06100000000001</c:v>
+                  <c:v>150.202</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>157.57599999999999</c:v>
+                  <c:v>151.91900000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>159.09100000000001</c:v>
+                  <c:v>153.636</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>160.60599999999999</c:v>
+                  <c:v>155.35400000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>162.12100000000001</c:v>
+                  <c:v>157.071</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>163.636</c:v>
+                  <c:v>158.78800000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>165.15199999999999</c:v>
+                  <c:v>160.505</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>166.667</c:v>
+                  <c:v>162.22200000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>168.18199999999999</c:v>
+                  <c:v>163.93899999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>169.697</c:v>
+                  <c:v>165.65700000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>171.21199999999999</c:v>
+                  <c:v>167.374</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>172.727</c:v>
+                  <c:v>169.09100000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>170.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>172.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>174.24199999999999</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>175.75800000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>177.273</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>178.78800000000001</c:v>
+                  <c:v>175.96</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>180.303</c:v>
+                  <c:v>177.67699999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>181.81800000000001</c:v>
+                  <c:v>179.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>183.333</c:v>
+                  <c:v>181.11099999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>184.84800000000001</c:v>
+                  <c:v>182.828</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>186.364</c:v>
+                  <c:v>184.54499999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>187.87899999999999</c:v>
+                  <c:v>186.26300000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>189.39400000000001</c:v>
+                  <c:v>187.98</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>190.90899999999999</c:v>
+                  <c:v>189.697</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>192.42400000000001</c:v>
+                  <c:v>191.41399999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>193.93899999999999</c:v>
+                  <c:v>193.131</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>195.45500000000001</c:v>
+                  <c:v>194.84800000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196.97</c:v>
+                  <c:v>196.566</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198.48500000000001</c:v>
+                  <c:v>198.28299999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>200</c:v>
@@ -1745,304 +1744,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>42.315800000000003</c:v>
+                  <c:v>73.045500000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.803699999999999</c:v>
+                  <c:v>71.328299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.293199999999999</c:v>
+                  <c:v>69.611099999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.785299999999999</c:v>
+                  <c:v>67.893900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.280700000000003</c:v>
+                  <c:v>66.1768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.780999999999999</c:v>
+                  <c:v>64.459599999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.287399999999998</c:v>
+                  <c:v>62.742400000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.8018</c:v>
+                  <c:v>61.025300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.326599999999999</c:v>
+                  <c:v>59.308100000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.863900000000001</c:v>
+                  <c:v>57.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.416599999999999</c:v>
+                  <c:v>55.873899999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.987100000000002</c:v>
+                  <c:v>54.1569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.579799999999999</c:v>
+                  <c:v>52.440100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.196899999999999</c:v>
+                  <c:v>50.723599999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.842099999999999</c:v>
+                  <c:v>49.007599999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.5184</c:v>
+                  <c:v>47.292400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.229199999999999</c:v>
+                  <c:v>45.578600000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.976900000000001</c:v>
+                  <c:v>43.866700000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.767700000000001</c:v>
+                  <c:v>42.157699999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.600899999999999</c:v>
+                  <c:v>40.452599999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.4773</c:v>
+                  <c:v>38.753</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.405799999999999</c:v>
+                  <c:v>37.060499999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.378299999999999</c:v>
+                  <c:v>35.377600000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.4071</c:v>
+                  <c:v>33.706400000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.482900000000001</c:v>
+                  <c:v>32.0503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.6109100000000005</c:v>
+                  <c:v>30.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.7929099999999991</c:v>
+                  <c:v>28.795100000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0237200000000009</c:v>
+                  <c:v>27.203399999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3033099999999997</c:v>
+                  <c:v>25.640699999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6324699999999996</c:v>
+                  <c:v>24.111000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.0129000000000001</c:v>
+                  <c:v>22.6175</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4387699999999999</c:v>
+                  <c:v>21.164300000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9085999999999999</c:v>
+                  <c:v>19.7575</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4206099999999999</c:v>
+                  <c:v>18.395</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.97282</c:v>
+                  <c:v>17.0869</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.56304</c:v>
+                  <c:v>15.8268</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1889400000000001</c:v>
+                  <c:v>14.6287</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.84809</c:v>
+                  <c:v>13.4838</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.5380500000000001</c:v>
+                  <c:v>12.394399999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2605300000000002</c:v>
+                  <c:v>11.370900000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.01058</c:v>
+                  <c:v>10.4048</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7846299999999999</c:v>
+                  <c:v>9.4963899999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5803100000000001</c:v>
+                  <c:v>8.6458300000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3954299999999999</c:v>
+                  <c:v>7.8525799999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2325200000000001</c:v>
+                  <c:v>7.1156699999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0884</c:v>
+                  <c:v>6.4336399999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.95780200000000004</c:v>
+                  <c:v>5.8045799999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.83923800000000004</c:v>
+                  <c:v>5.2262000000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.73955199999999999</c:v>
+                  <c:v>4.6958500000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.64854699999999998</c:v>
+                  <c:v>4.21061</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.56560200000000005</c:v>
+                  <c:v>3.7673999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.49706699999999998</c:v>
+                  <c:v>3.3630300000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.43370700000000001</c:v>
+                  <c:v>2.9943200000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.37818499999999999</c:v>
+                  <c:v>2.6629900000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.33057999999999998</c:v>
+                  <c:v>2.3678900000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.28597099999999998</c:v>
+                  <c:v>2.0996600000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.25059500000000001</c:v>
+                  <c:v>1.8554299999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.21679000000000001</c:v>
+                  <c:v>1.6388400000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18911900000000001</c:v>
+                  <c:v>1.4484399999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.16356100000000001</c:v>
+                  <c:v>1.2742800000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.142231</c:v>
+                  <c:v>1.1192299999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.12286900000000001</c:v>
+                  <c:v>0.98567899999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.106679</c:v>
+                  <c:v>0.86222799999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.1916100000000001E-2</c:v>
+                  <c:v>0.75630299999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.9827599999999999E-2</c:v>
+                  <c:v>0.66217300000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.8454200000000007E-2</c:v>
+                  <c:v>0.57630099999999995</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.9583799999999999E-2</c:v>
+                  <c:v>0.50536700000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.0713399999999999E-2</c:v>
+                  <c:v>0.43776199999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.4323500000000002E-2</c:v>
+                  <c:v>0.38369199999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.7933500000000002E-2</c:v>
+                  <c:v>0.33200499999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.2808900000000002E-2</c:v>
+                  <c:v>0.29008699999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.82952E-2</c:v>
+                  <c:v>0.25051400000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4112600000000001E-2</c:v>
+                  <c:v>0.218559</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.0990000000000002E-2</c:v>
+                  <c:v>0.18807599999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7867299999999999E-2</c:v>
+                  <c:v>0.16414899999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.54342E-2</c:v>
+                  <c:v>0.14043600000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3321299999999999E-2</c:v>
+                  <c:v>0.122859</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.12084E-2</c:v>
+                  <c:v>0.105282</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.8119699999999997E-3</c:v>
+                  <c:v>9.1540999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4156000000000005E-3</c:v>
+                  <c:v>7.88885E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.1083300000000004E-3</c:v>
+                  <c:v>6.7776199999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.2084100000000001E-3</c:v>
+                  <c:v>5.8864100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.30848E-3</c:v>
+                  <c:v>4.9952000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.4791500000000003E-3</c:v>
+                  <c:v>4.3604400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.9145100000000004E-3</c:v>
+                  <c:v>3.74706E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.34988E-3</c:v>
+                  <c:v>3.1948299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.8031100000000002E-3</c:v>
+                  <c:v>2.7829699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.45882E-3</c:v>
+                  <c:v>2.3711200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.1145399999999998E-3</c:v>
+                  <c:v>2.0365299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.7702499999999999E-3</c:v>
+                  <c:v>1.7672E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.53538E-3</c:v>
+                  <c:v>1.4978699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.33176E-3</c:v>
+                  <c:v>1.2900999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1281500000000001E-3</c:v>
+                  <c:v>1.11888E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.4941000000000003E-4</c:v>
+                  <c:v>9.4766399999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.32857E-4</c:v>
+                  <c:v>8.1228299999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.1630299999999995E-4</c:v>
+                  <c:v>7.0667600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.9975000000000002E-4</c:v>
+                  <c:v>6.01068E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.1385700000000005E-4</c:v>
+                  <c:v>5.0753200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.4942799999999998E-4</c:v>
+                  <c:v>4.4447000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.8499900000000002E-4</c:v>
+                  <c:v>3.8140700000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,7 +3479,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3933,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>31</v>
+      <c r="G2" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3947,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -3961,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
@@ -3983,8 +3982,8 @@
       <c r="B6" s="8">
         <v>100</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>33</v>
+      <c r="G6" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3995,10 +3994,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4009,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4027,8 +4026,8 @@
       <c r="B10" s="8">
         <v>200</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4112,824 +4111,825 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>-0.99802500000000005</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>51.5152</v>
+        <v>31.717199999999998</v>
       </c>
       <c r="B3">
-        <v>-1.5113000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>53.030299999999997</v>
+        <v>33.4343</v>
       </c>
       <c r="B4">
-        <v>-1.5092099999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>54.545499999999997</v>
+        <v>35.151499999999999</v>
       </c>
       <c r="B5">
-        <v>-1.5062500000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>56.060600000000001</v>
+        <v>36.868699999999997</v>
       </c>
       <c r="B6">
-        <v>-1.5021500000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>57.575800000000001</v>
+        <v>38.585900000000002</v>
       </c>
       <c r="B7">
-        <v>-1.49668</v>
+        <v>-0.99999899999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>59.090899999999998</v>
+        <v>40.302999999999997</v>
       </c>
       <c r="B8">
-        <v>-1.48959</v>
+        <v>-0.99999800000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>60.606099999999998</v>
+        <v>42.020200000000003</v>
       </c>
       <c r="B9">
-        <v>-1.48038</v>
+        <v>-0.99999400000000005</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>62.121200000000002</v>
+        <v>43.737400000000001</v>
       </c>
       <c r="B10">
-        <v>-1.4689300000000001</v>
+        <v>-0.99998500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>63.636400000000002</v>
+        <v>45.454500000000003</v>
       </c>
       <c r="B11">
-        <v>-1.4550099999999999</v>
+        <v>-0.99996499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>65.151499999999999</v>
+        <v>47.171700000000001</v>
       </c>
       <c r="B12">
-        <v>-1.43841</v>
+        <v>-0.99992599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>66.666700000000006</v>
+        <v>48.8889</v>
       </c>
       <c r="B13">
-        <v>-1.4184099999999999</v>
+        <v>-0.99985000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>68.181799999999996</v>
+        <v>50.606099999999998</v>
       </c>
       <c r="B14">
-        <v>-1.39507</v>
+        <v>-0.99971500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>69.697000000000003</v>
+        <v>52.3232</v>
       </c>
       <c r="B15">
-        <v>-1.36886</v>
+        <v>-0.99948099999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>71.212100000000007</v>
+        <v>54.040399999999998</v>
       </c>
       <c r="B16">
-        <v>-1.3392599999999999</v>
+        <v>-0.99909400000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>72.7273</v>
+        <v>55.757599999999996</v>
       </c>
       <c r="B17">
-        <v>-1.30644</v>
+        <v>-0.99847699999999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>74.242400000000004</v>
+        <v>57.474699999999999</v>
       </c>
       <c r="B18">
-        <v>-1.27078</v>
+        <v>-0.99754799999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>75.757599999999996</v>
+        <v>59.191899999999997</v>
       </c>
       <c r="B19">
-        <v>-1.23075</v>
+        <v>-0.99616700000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>77.2727</v>
+        <v>60.909100000000002</v>
       </c>
       <c r="B20">
-        <v>-1.1879999999999999</v>
+        <v>-0.99419199999999996</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>78.787899999999993</v>
+        <v>62.626300000000001</v>
       </c>
       <c r="B21">
-        <v>-1.1451800000000001</v>
+        <v>-0.99146699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>80.302999999999997</v>
+        <v>64.343400000000003</v>
       </c>
       <c r="B22">
-        <v>-1.09754</v>
+        <v>-0.987846</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>81.818200000000004</v>
+        <v>66.060599999999994</v>
       </c>
       <c r="B23">
-        <v>-1.0495099999999999</v>
+        <v>-0.98297199999999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>83.333299999999994</v>
+        <v>67.777799999999999</v>
       </c>
       <c r="B24">
-        <v>-0.99934199999999995</v>
+        <v>-0.97684700000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>84.848500000000001</v>
+        <v>69.494900000000001</v>
       </c>
       <c r="B25">
-        <v>-0.94769499999999995</v>
+        <v>-0.96901599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>86.363600000000005</v>
+        <v>71.212100000000007</v>
       </c>
       <c r="B26">
-        <v>-0.89810000000000001</v>
+        <v>-0.95939600000000003</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>87.878799999999998</v>
+        <v>72.929299999999998</v>
       </c>
       <c r="B27">
-        <v>-0.84499999999999997</v>
+        <v>-0.94816</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>89.393900000000002</v>
+        <v>74.646500000000003</v>
       </c>
       <c r="B28">
-        <v>-0.793597</v>
+        <v>-0.93472999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>90.909099999999995</v>
+        <v>76.363600000000005</v>
       </c>
       <c r="B29">
-        <v>-0.74479899999999999</v>
+        <v>-0.91896599999999995</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>92.424199999999999</v>
+        <v>78.080799999999996</v>
       </c>
       <c r="B30">
-        <v>-0.69562400000000002</v>
+        <v>-0.90082399999999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>93.939400000000006</v>
+        <v>79.798000000000002</v>
       </c>
       <c r="B31">
-        <v>-0.645204</v>
+        <v>-0.88038799999999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>95.454499999999996</v>
+        <v>81.515199999999993</v>
       </c>
       <c r="B32">
-        <v>-0.59684899999999996</v>
+        <v>-0.85790699999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>96.969700000000003</v>
+        <v>83.232299999999995</v>
       </c>
       <c r="B33">
-        <v>-0.55215099999999995</v>
+        <v>-0.83302799999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>98.484800000000007</v>
+        <v>84.9495</v>
       </c>
       <c r="B34">
-        <v>-0.50907999999999998</v>
+        <v>-0.80637199999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>100</v>
+        <v>86.666700000000006</v>
       </c>
       <c r="B35">
-        <v>-0.46788800000000003</v>
+        <v>-0.77849699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>101.515</v>
+        <v>88.383799999999994</v>
       </c>
       <c r="B36">
-        <v>-0.428786</v>
+        <v>-0.74730399999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>103.03</v>
+        <v>90.100999999999999</v>
       </c>
       <c r="B37">
-        <v>-0.39194299999999999</v>
+        <v>-0.71598200000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>104.545</v>
+        <v>91.818200000000004</v>
       </c>
       <c r="B38">
-        <v>-0.35747499999999999</v>
+        <v>-0.68383899999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>106.06100000000001</v>
+        <v>93.535399999999996</v>
       </c>
       <c r="B39">
-        <v>-0.32544499999999998</v>
+        <v>-0.64771199999999995</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>107.57599999999999</v>
+        <v>95.252499999999998</v>
       </c>
       <c r="B40">
-        <v>-0.29378199999999999</v>
+        <v>-0.61525300000000005</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>109.09099999999999</v>
+        <v>96.969700000000003</v>
       </c>
       <c r="B41">
-        <v>-0.26373200000000002</v>
+        <v>-0.58274300000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>110.60599999999999</v>
+        <v>98.686899999999994</v>
       </c>
       <c r="B42">
-        <v>-0.23794799999999999</v>
+        <v>-0.54695300000000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>112.121</v>
+        <v>100.404</v>
       </c>
       <c r="B43">
-        <v>-0.215138</v>
+        <v>-0.51039400000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>113.636</v>
+        <v>102.121</v>
       </c>
       <c r="B44">
-        <v>-0.19459899999999999</v>
+        <v>-0.476134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>115.152</v>
+        <v>103.83799999999999</v>
       </c>
       <c r="B45">
-        <v>-0.17389099999999999</v>
+        <v>-0.44371100000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>116.667</v>
+        <v>105.556</v>
       </c>
       <c r="B46">
-        <v>-0.15351500000000001</v>
+        <v>-0.41192000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>118.182</v>
+        <v>107.273</v>
       </c>
       <c r="B47">
-        <v>-0.13736100000000001</v>
+        <v>-0.38101000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>119.697</v>
+        <v>108.99</v>
       </c>
       <c r="B48">
-        <v>-0.124582</v>
+        <v>-0.35120400000000002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>121.212</v>
+        <v>110.70699999999999</v>
       </c>
       <c r="B49">
-        <v>-0.109125</v>
+        <v>-0.32270100000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>122.727</v>
+        <v>112.42400000000001</v>
       </c>
       <c r="B50">
-        <v>-9.5345799999999994E-2</v>
+        <v>-0.29566300000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>124.242</v>
+        <v>114.14100000000001</v>
       </c>
       <c r="B51">
-        <v>-8.69751E-2</v>
+        <v>-0.27021400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>125.758</v>
+        <v>115.85899999999999</v>
       </c>
       <c r="B52">
-        <v>-7.5740100000000005E-2</v>
+        <v>-0.246258</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>127.273</v>
+        <v>117.57599999999999</v>
       </c>
       <c r="B53">
-        <v>-6.5947599999999995E-2</v>
+        <v>-0.22347600000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>128.78800000000001</v>
+        <v>119.29300000000001</v>
       </c>
       <c r="B54">
-        <v>-5.9440800000000002E-2</v>
+        <v>-0.20253699999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>130.303</v>
+        <v>121.01</v>
       </c>
       <c r="B55">
-        <v>-5.1563199999999997E-2</v>
+        <v>-0.18340999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>131.81800000000001</v>
+        <v>122.727</v>
       </c>
       <c r="B56">
-        <v>-4.6106800000000003E-2</v>
+        <v>-0.16602</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>133.333</v>
+        <v>124.444</v>
       </c>
       <c r="B57">
-        <v>-3.9992899999999998E-2</v>
+        <v>-0.146868</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>134.84800000000001</v>
+        <v>126.16200000000001</v>
       </c>
       <c r="B58">
-        <v>-3.4590599999999999E-2</v>
+        <v>-0.13256299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>136.364</v>
+        <v>127.879</v>
       </c>
       <c r="B59">
-        <v>-3.0737799999999999E-2</v>
+        <v>-0.11978999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>137.87899999999999</v>
+        <v>129.596</v>
       </c>
       <c r="B60">
-        <v>-2.66144E-2</v>
+        <v>-0.107306</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>139.39400000000001</v>
+        <v>131.31299999999999</v>
       </c>
       <c r="B61">
-        <v>-2.34439E-2</v>
+        <v>-9.3744599999999997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>140.90899999999999</v>
+        <v>133.03</v>
       </c>
       <c r="B62">
-        <v>-2.0346E-2</v>
+        <v>-8.4996299999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>142.42400000000001</v>
+        <v>134.74700000000001</v>
       </c>
       <c r="B63">
-        <v>-1.7775800000000001E-2</v>
+        <v>-7.5094900000000006E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>143.93899999999999</v>
+        <v>136.465</v>
       </c>
       <c r="B64">
-        <v>-1.54766E-2</v>
+        <v>-6.5640100000000007E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>145.45500000000001</v>
+        <v>138.18199999999999</v>
       </c>
       <c r="B65">
-        <v>-1.3425899999999999E-2</v>
+        <v>-5.9975500000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>146.97</v>
+        <v>139.899</v>
       </c>
       <c r="B66">
-        <v>-1.1730900000000001E-2</v>
+        <v>-5.0008299999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>148.48500000000001</v>
+        <v>141.61600000000001</v>
       </c>
       <c r="B67">
-        <v>-1.01219E-2</v>
+        <v>-4.6135599999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>150</v>
+        <v>143.333</v>
       </c>
       <c r="B68">
-        <v>-8.8704100000000004E-3</v>
+        <v>-3.9978E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>151.51499999999999</v>
+        <v>145.05099999999999</v>
       </c>
       <c r="B69">
-        <v>-7.6301800000000003E-3</v>
+        <v>-3.5210699999999998E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>153.03</v>
+        <v>146.768</v>
       </c>
       <c r="B70">
-        <v>-6.3899600000000001E-3</v>
+        <v>-3.1487500000000002E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>154.54499999999999</v>
+        <v>148.48500000000001</v>
       </c>
       <c r="B71">
-        <v>-5.75728E-3</v>
+        <v>-2.6757900000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>156.06100000000001</v>
+        <v>150.202</v>
       </c>
       <c r="B72">
-        <v>-4.8191700000000002E-3</v>
+        <v>-2.4410999999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>157.57599999999999</v>
+        <v>151.91900000000001</v>
       </c>
       <c r="B73">
-        <v>-4.3481400000000003E-3</v>
+        <v>-2.03378E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>159.09100000000001</v>
+        <v>153.636</v>
       </c>
       <c r="B74">
-        <v>-3.6526000000000002E-3</v>
+        <v>-1.8608900000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>160.60599999999999</v>
+        <v>155.35400000000001</v>
       </c>
       <c r="B75">
-        <v>-3.1226600000000002E-3</v>
+        <v>-1.55356E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>162.12100000000001</v>
+        <v>157.071</v>
       </c>
       <c r="B76">
-        <v>-2.7778799999999999E-3</v>
+        <v>-1.3933900000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>163.636</v>
+        <v>158.78800000000001</v>
       </c>
       <c r="B77">
-        <v>-2.2730200000000002E-3</v>
+        <v>-1.1978300000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>165.15199999999999</v>
+        <v>160.505</v>
       </c>
       <c r="B78">
-        <v>-2.1129399999999998E-3</v>
+        <v>-1.02361E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>166.667</v>
+        <v>162.22200000000001</v>
       </c>
       <c r="B79">
-        <v>-1.7546599999999999E-3</v>
+        <v>-9.3462000000000007E-3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>168.18199999999999</v>
+        <v>163.93899999999999</v>
       </c>
       <c r="B80">
-        <v>-1.39638E-3</v>
+        <v>-7.36821E-3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>169.697</v>
+        <v>165.65700000000001</v>
       </c>
       <c r="B81">
-        <v>-1.3518200000000001E-3</v>
+        <v>-7.36821E-3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>171.21199999999999</v>
+        <v>167.374</v>
       </c>
       <c r="B82">
-        <v>-1.1035999999999999E-3</v>
+        <v>-5.5090199999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>172.727</v>
+        <v>169.09100000000001</v>
       </c>
       <c r="B83">
-        <v>-8.9992100000000003E-4</v>
+        <v>-5.1899900000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>174.24199999999999</v>
+        <v>170.80799999999999</v>
       </c>
       <c r="B84">
-        <v>-8.6462799999999999E-4</v>
+        <v>-4.4878699999999997E-3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>175.75800000000001</v>
+        <v>172.52500000000001</v>
       </c>
       <c r="B85">
-        <v>-6.9698600000000002E-4</v>
+        <v>-3.5720399999999999E-3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>177.273</v>
+        <v>174.24199999999999</v>
       </c>
       <c r="B86">
-        <v>-5.6463699999999999E-4</v>
+        <v>-3.5720399999999999E-3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>178.78800000000001</v>
+        <v>175.96</v>
       </c>
       <c r="B87">
-        <v>-5.5570299999999995E-4</v>
+        <v>-2.6795199999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>180.303</v>
+        <v>177.67699999999999</v>
       </c>
       <c r="B88">
-        <v>-4.4552799999999999E-4</v>
+        <v>-2.3984399999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>181.81800000000001</v>
+        <v>179.39400000000001</v>
       </c>
       <c r="B89">
-        <v>-3.44285E-4</v>
+        <v>-2.3097299999999999E-3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>183.333</v>
+        <v>181.11099999999999</v>
       </c>
       <c r="B90">
-        <v>-3.44285E-4</v>
+        <v>-1.5971099999999999E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>184.84800000000001</v>
+        <v>182.828</v>
       </c>
       <c r="B91">
-        <v>-2.8957899999999999E-4</v>
+        <v>-1.5684500000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>186.364</v>
+        <v>184.54499999999999</v>
       </c>
       <c r="B92">
-        <v>-2.19244E-4</v>
+        <v>-1.46553E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>187.87899999999999</v>
+        <v>186.26300000000001</v>
       </c>
       <c r="B93">
-        <v>-2.0361399999999999E-4</v>
+        <v>-9.9710300000000005E-4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>189.39400000000001</v>
+        <v>187.98</v>
       </c>
       <c r="B94">
-        <v>-1.91177E-4</v>
+        <v>-9.9710300000000005E-4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>190.90899999999999</v>
+        <v>189.697</v>
       </c>
       <c r="B95">
-        <v>-1.4764699999999999E-4</v>
+        <v>-9.5492400000000001E-4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>192.42400000000001</v>
+        <v>191.41399999999999</v>
       </c>
       <c r="B96">
-        <v>-1.16554E-4</v>
+        <v>-6.2686199999999995E-4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>193.93899999999999</v>
+        <v>193.131</v>
       </c>
       <c r="B97">
-        <v>-1.16554E-4</v>
+        <v>-6.15008E-4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>195.45500000000001</v>
+        <v>194.84800000000001</v>
       </c>
       <c r="B98">
-        <v>-1.01223E-4</v>
+        <v>-6.15008E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>196.97</v>
-      </c>
-      <c r="B99" s="14">
-        <v>-7.5160799999999994E-5</v>
+        <v>196.566</v>
+      </c>
+      <c r="B99">
+        <v>-4.3077099999999999E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>198.48500000000001</v>
-      </c>
-      <c r="B100" s="14">
-        <v>-6.4429299999999997E-5</v>
+        <v>198.28299999999999</v>
+      </c>
+      <c r="B100">
+        <v>-3.6724799999999998E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>200</v>
       </c>
-      <c r="B101" s="14">
-        <v>-4.25234E-5</v>
+      <c r="B101">
+        <v>-3.6724799999999998E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4947,805 +4947,805 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>42.315800000000003</v>
+        <v>73.045500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>51.5152</v>
+        <v>31.717199999999998</v>
       </c>
       <c r="B3">
-        <v>40.803699999999999</v>
+        <v>71.328299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>53.030299999999997</v>
+        <v>33.4343</v>
       </c>
       <c r="B4">
-        <v>39.293199999999999</v>
+        <v>69.611099999999993</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>54.545499999999997</v>
+        <v>35.151499999999999</v>
       </c>
       <c r="B5">
-        <v>37.785299999999999</v>
+        <v>67.893900000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>56.060600000000001</v>
+        <v>36.868699999999997</v>
       </c>
       <c r="B6">
-        <v>36.280700000000003</v>
+        <v>66.1768</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>57.575800000000001</v>
+        <v>38.585900000000002</v>
       </c>
       <c r="B7">
-        <v>34.780999999999999</v>
+        <v>64.459599999999995</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>59.090899999999998</v>
+        <v>40.302999999999997</v>
       </c>
       <c r="B8">
-        <v>33.287399999999998</v>
+        <v>62.742400000000004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>60.606099999999998</v>
+        <v>42.020200000000003</v>
       </c>
       <c r="B9">
-        <v>31.8018</v>
+        <v>61.025300000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>62.121200000000002</v>
+        <v>43.737400000000001</v>
       </c>
       <c r="B10">
-        <v>30.326599999999999</v>
+        <v>59.308100000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>63.636400000000002</v>
+        <v>45.454500000000003</v>
       </c>
       <c r="B11">
-        <v>28.863900000000001</v>
+        <v>57.591000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>65.151499999999999</v>
+        <v>47.171700000000001</v>
       </c>
       <c r="B12">
-        <v>27.416599999999999</v>
+        <v>55.873899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>66.666700000000006</v>
+        <v>48.8889</v>
       </c>
       <c r="B13">
-        <v>25.987100000000002</v>
+        <v>54.1569</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>68.181799999999996</v>
+        <v>50.606099999999998</v>
       </c>
       <c r="B14">
-        <v>24.579799999999999</v>
+        <v>52.440100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>69.697000000000003</v>
+        <v>52.3232</v>
       </c>
       <c r="B15">
-        <v>23.196899999999999</v>
+        <v>50.723599999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>71.212100000000007</v>
+        <v>54.040399999999998</v>
       </c>
       <c r="B16">
-        <v>21.842099999999999</v>
+        <v>49.007599999999996</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>72.7273</v>
+        <v>55.757599999999996</v>
       </c>
       <c r="B17">
-        <v>20.5184</v>
+        <v>47.292400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>74.242400000000004</v>
+        <v>57.474699999999999</v>
       </c>
       <c r="B18">
-        <v>19.229199999999999</v>
+        <v>45.578600000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>75.757599999999996</v>
+        <v>59.191899999999997</v>
       </c>
       <c r="B19">
-        <v>17.976900000000001</v>
+        <v>43.866700000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>77.2727</v>
+        <v>60.909100000000002</v>
       </c>
       <c r="B20">
-        <v>16.767700000000001</v>
+        <v>42.157699999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>78.787899999999993</v>
+        <v>62.626300000000001</v>
       </c>
       <c r="B21">
-        <v>15.600899999999999</v>
+        <v>40.452599999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>80.302999999999997</v>
+        <v>64.343400000000003</v>
       </c>
       <c r="B22">
-        <v>14.4773</v>
+        <v>38.753</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>81.818200000000004</v>
+        <v>66.060599999999994</v>
       </c>
       <c r="B23">
-        <v>13.405799999999999</v>
+        <v>37.060499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>83.333299999999994</v>
+        <v>67.777799999999999</v>
       </c>
       <c r="B24">
-        <v>12.378299999999999</v>
+        <v>35.377600000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>84.848500000000001</v>
+        <v>69.494900000000001</v>
       </c>
       <c r="B25">
-        <v>11.4071</v>
+        <v>33.706400000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>86.363600000000005</v>
+        <v>71.212100000000007</v>
       </c>
       <c r="B26">
-        <v>10.482900000000001</v>
+        <v>32.0503</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>87.878799999999998</v>
+        <v>72.929299999999998</v>
       </c>
       <c r="B27">
-        <v>9.6109100000000005</v>
+        <v>30.411999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>89.393900000000002</v>
+        <v>74.646500000000003</v>
       </c>
       <c r="B28">
-        <v>8.7929099999999991</v>
+        <v>28.795100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>90.909099999999995</v>
+        <v>76.363600000000005</v>
       </c>
       <c r="B29">
-        <v>8.0237200000000009</v>
+        <v>27.203399999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>92.424199999999999</v>
+        <v>78.080799999999996</v>
       </c>
       <c r="B30">
-        <v>7.3033099999999997</v>
+        <v>25.640699999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>93.939400000000006</v>
+        <v>79.798000000000002</v>
       </c>
       <c r="B31">
-        <v>6.6324699999999996</v>
+        <v>24.111000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>95.454499999999996</v>
+        <v>81.515199999999993</v>
       </c>
       <c r="B32">
-        <v>6.0129000000000001</v>
+        <v>22.6175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>96.969700000000003</v>
+        <v>83.232299999999995</v>
       </c>
       <c r="B33">
-        <v>5.4387699999999999</v>
+        <v>21.164300000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>98.484800000000007</v>
+        <v>84.9495</v>
       </c>
       <c r="B34">
-        <v>4.9085999999999999</v>
+        <v>19.7575</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>100</v>
+        <v>86.666700000000006</v>
       </c>
       <c r="B35">
-        <v>4.4206099999999999</v>
+        <v>18.395</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>101.515</v>
+        <v>88.383799999999994</v>
       </c>
       <c r="B36">
-        <v>3.97282</v>
+        <v>17.0869</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>103.03</v>
+        <v>90.100999999999999</v>
       </c>
       <c r="B37">
-        <v>3.56304</v>
+        <v>15.8268</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>104.545</v>
+        <v>91.818200000000004</v>
       </c>
       <c r="B38">
-        <v>3.1889400000000001</v>
+        <v>14.6287</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>106.06100000000001</v>
+        <v>93.535399999999996</v>
       </c>
       <c r="B39">
-        <v>2.84809</v>
+        <v>13.4838</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>107.57599999999999</v>
+        <v>95.252499999999998</v>
       </c>
       <c r="B40">
-        <v>2.5380500000000001</v>
+        <v>12.394399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>109.09099999999999</v>
+        <v>96.969700000000003</v>
       </c>
       <c r="B41">
-        <v>2.2605300000000002</v>
+        <v>11.370900000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>110.60599999999999</v>
+        <v>98.686899999999994</v>
       </c>
       <c r="B42">
-        <v>2.01058</v>
+        <v>10.4048</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>112.121</v>
+        <v>100.404</v>
       </c>
       <c r="B43">
-        <v>1.7846299999999999</v>
+        <v>9.4963899999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>113.636</v>
+        <v>102.121</v>
       </c>
       <c r="B44">
-        <v>1.5803100000000001</v>
+        <v>8.6458300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>115.152</v>
+        <v>103.83799999999999</v>
       </c>
       <c r="B45">
-        <v>1.3954299999999999</v>
+        <v>7.8525799999999997</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>116.667</v>
+        <v>105.556</v>
       </c>
       <c r="B46">
-        <v>1.2325200000000001</v>
+        <v>7.1156699999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>118.182</v>
+        <v>107.273</v>
       </c>
       <c r="B47">
-        <v>1.0884</v>
+        <v>6.4336399999999996</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>119.697</v>
+        <v>108.99</v>
       </c>
       <c r="B48">
-        <v>0.95780200000000004</v>
+        <v>5.8045799999999996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>121.212</v>
+        <v>110.70699999999999</v>
       </c>
       <c r="B49">
-        <v>0.83923800000000004</v>
+        <v>5.2262000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>122.727</v>
+        <v>112.42400000000001</v>
       </c>
       <c r="B50">
-        <v>0.73955199999999999</v>
+        <v>4.6958500000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>124.242</v>
+        <v>114.14100000000001</v>
       </c>
       <c r="B51">
-        <v>0.64854699999999998</v>
+        <v>4.21061</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>125.758</v>
+        <v>115.85899999999999</v>
       </c>
       <c r="B52">
-        <v>0.56560200000000005</v>
+        <v>3.7673999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>127.273</v>
+        <v>117.57599999999999</v>
       </c>
       <c r="B53">
-        <v>0.49706699999999998</v>
+        <v>3.3630300000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>128.78800000000001</v>
+        <v>119.29300000000001</v>
       </c>
       <c r="B54">
-        <v>0.43370700000000001</v>
+        <v>2.9943200000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>130.303</v>
+        <v>121.01</v>
       </c>
       <c r="B55">
-        <v>0.37818499999999999</v>
+        <v>2.6629900000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>131.81800000000001</v>
+        <v>122.727</v>
       </c>
       <c r="B56">
-        <v>0.33057999999999998</v>
+        <v>2.3678900000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>133.333</v>
+        <v>124.444</v>
       </c>
       <c r="B57">
-        <v>0.28597099999999998</v>
+        <v>2.0996600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>134.84800000000001</v>
+        <v>126.16200000000001</v>
       </c>
       <c r="B58">
-        <v>0.25059500000000001</v>
+        <v>1.8554299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>136.364</v>
+        <v>127.879</v>
       </c>
       <c r="B59">
-        <v>0.21679000000000001</v>
+        <v>1.6388400000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>137.87899999999999</v>
+        <v>129.596</v>
       </c>
       <c r="B60">
-        <v>0.18911900000000001</v>
+        <v>1.4484399999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>139.39400000000001</v>
+        <v>131.31299999999999</v>
       </c>
       <c r="B61">
-        <v>0.16356100000000001</v>
+        <v>1.2742800000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>140.90899999999999</v>
+        <v>133.03</v>
       </c>
       <c r="B62">
-        <v>0.142231</v>
+        <v>1.1192299999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>142.42400000000001</v>
+        <v>134.74700000000001</v>
       </c>
       <c r="B63">
-        <v>0.12286900000000001</v>
+        <v>0.98567899999999997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>143.93899999999999</v>
+        <v>136.465</v>
       </c>
       <c r="B64">
-        <v>0.106679</v>
+        <v>0.86222799999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>145.45500000000001</v>
+        <v>138.18199999999999</v>
       </c>
       <c r="B65">
-        <v>9.1916100000000001E-2</v>
+        <v>0.75630299999999995</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>146.97</v>
+        <v>139.899</v>
       </c>
       <c r="B66">
-        <v>7.9827599999999999E-2</v>
+        <v>0.66217300000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>148.48500000000001</v>
+        <v>141.61600000000001</v>
       </c>
       <c r="B67">
-        <v>6.8454200000000007E-2</v>
+        <v>0.57630099999999995</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>150</v>
+        <v>143.333</v>
       </c>
       <c r="B68">
-        <v>5.9583799999999999E-2</v>
+        <v>0.50536700000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>151.51499999999999</v>
+        <v>145.05099999999999</v>
       </c>
       <c r="B69">
-        <v>5.0713399999999999E-2</v>
+        <v>0.43776199999999998</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>153.03</v>
+        <v>146.768</v>
       </c>
       <c r="B70">
-        <v>4.4323500000000002E-2</v>
+        <v>0.38369199999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>154.54499999999999</v>
+        <v>148.48500000000001</v>
       </c>
       <c r="B71">
-        <v>3.7933500000000002E-2</v>
+        <v>0.33200499999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>156.06100000000001</v>
+        <v>150.202</v>
       </c>
       <c r="B72">
-        <v>3.2808900000000002E-2</v>
+        <v>0.29008699999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>157.57599999999999</v>
+        <v>151.91900000000001</v>
       </c>
       <c r="B73">
-        <v>2.82952E-2</v>
+        <v>0.25051400000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>159.09100000000001</v>
+        <v>153.636</v>
       </c>
       <c r="B74">
-        <v>2.4112600000000001E-2</v>
+        <v>0.218559</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>160.60599999999999</v>
+        <v>155.35400000000001</v>
       </c>
       <c r="B75">
-        <v>2.0990000000000002E-2</v>
+        <v>0.18807599999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>162.12100000000001</v>
+        <v>157.071</v>
       </c>
       <c r="B76">
-        <v>1.7867299999999999E-2</v>
+        <v>0.16414899999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>163.636</v>
+        <v>158.78800000000001</v>
       </c>
       <c r="B77">
-        <v>1.54342E-2</v>
+        <v>0.14043600000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>165.15199999999999</v>
+        <v>160.505</v>
       </c>
       <c r="B78">
-        <v>1.3321299999999999E-2</v>
+        <v>0.122859</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>166.667</v>
+        <v>162.22200000000001</v>
       </c>
       <c r="B79">
-        <v>1.12084E-2</v>
+        <v>0.105282</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>168.18199999999999</v>
+        <v>163.93899999999999</v>
       </c>
       <c r="B80">
-        <v>9.8119699999999997E-3</v>
+        <v>9.1540999999999997E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>169.697</v>
+        <v>165.65700000000001</v>
       </c>
       <c r="B81">
-        <v>8.4156000000000005E-3</v>
+        <v>7.88885E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>171.21199999999999</v>
+        <v>167.374</v>
       </c>
       <c r="B82">
-        <v>7.1083300000000004E-3</v>
+        <v>6.7776199999999995E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>172.727</v>
+        <v>169.09100000000001</v>
       </c>
       <c r="B83">
-        <v>6.2084100000000001E-3</v>
+        <v>5.8864100000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>174.24199999999999</v>
+        <v>170.80799999999999</v>
       </c>
       <c r="B84">
-        <v>5.30848E-3</v>
+        <v>4.9952000000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>175.75800000000001</v>
+        <v>172.52500000000001</v>
       </c>
       <c r="B85">
-        <v>4.4791500000000003E-3</v>
+        <v>4.3604400000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>177.273</v>
+        <v>174.24199999999999</v>
       </c>
       <c r="B86">
-        <v>3.9145100000000004E-3</v>
+        <v>3.74706E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>178.78800000000001</v>
+        <v>175.96</v>
       </c>
       <c r="B87">
-        <v>3.34988E-3</v>
+        <v>3.1948299999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>180.303</v>
+        <v>177.67699999999999</v>
       </c>
       <c r="B88">
-        <v>2.8031100000000002E-3</v>
+        <v>2.7829699999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>181.81800000000001</v>
+        <v>179.39400000000001</v>
       </c>
       <c r="B89">
-        <v>2.45882E-3</v>
+        <v>2.3711200000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>183.333</v>
+        <v>181.11099999999999</v>
       </c>
       <c r="B90">
-        <v>2.1145399999999998E-3</v>
+        <v>2.0365299999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>184.84800000000001</v>
+        <v>182.828</v>
       </c>
       <c r="B91">
-        <v>1.7702499999999999E-3</v>
+        <v>1.7672E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>186.364</v>
+        <v>184.54499999999999</v>
       </c>
       <c r="B92">
-        <v>1.53538E-3</v>
+        <v>1.4978699999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>187.87899999999999</v>
+        <v>186.26300000000001</v>
       </c>
       <c r="B93">
-        <v>1.33176E-3</v>
+        <v>1.2900999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>189.39400000000001</v>
+        <v>187.98</v>
       </c>
       <c r="B94">
-        <v>1.1281500000000001E-3</v>
+        <v>1.11888E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>190.90899999999999</v>
+        <v>189.697</v>
       </c>
       <c r="B95">
-        <v>9.4941000000000003E-4</v>
+        <v>9.4766399999999997E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>192.42400000000001</v>
+        <v>191.41399999999999</v>
       </c>
       <c r="B96">
-        <v>8.32857E-4</v>
+        <v>8.1228299999999993E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>193.93899999999999</v>
+        <v>193.131</v>
       </c>
       <c r="B97">
-        <v>7.1630299999999995E-4</v>
+        <v>7.0667600000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>195.45500000000001</v>
+        <v>194.84800000000001</v>
       </c>
       <c r="B98">
-        <v>5.9975000000000002E-4</v>
+        <v>6.01068E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>196.97</v>
+        <v>196.566</v>
       </c>
       <c r="B99">
-        <v>5.1385700000000005E-4</v>
+        <v>5.0753200000000004E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>198.48500000000001</v>
+        <v>198.28299999999999</v>
       </c>
       <c r="B100">
-        <v>4.4942799999999998E-4</v>
+        <v>4.4447000000000002E-3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>200</v>
       </c>
       <c r="B101">
-        <v>3.8499900000000002E-4</v>
+        <v>3.8140700000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5775,42 +5775,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.1088900000000002</v>
+        <v>52.046300000000002</v>
       </c>
       <c r="B2">
-        <v>-0.16524900000000001</v>
+        <v>-0.99967099999999998</v>
       </c>
       <c r="C2">
-        <v>6.0668199999999997E-3</v>
+        <v>1.16025E-4</v>
       </c>
       <c r="D2">
-        <v>-20.226900000000001</v>
+        <v>-103.03</v>
       </c>
       <c r="E2">
-        <v>27.247</v>
+        <v>6.0338299999999997E-2</v>
       </c>
       <c r="F2">
-        <v>-1.1066199999999999</v>
+        <v>-3.0969199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Interface.xlsx
+++ b/Interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaabouattour/Desktop/Projet CPP M2QF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764B3A3C-2DCB-644C-9A67-BF97B5D130B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684BAC8-6400-0A46-9854-ED1FA926EB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A344F692-69DE-1B4E-A92C-E8FFE24A7674}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{A344F692-69DE-1B4E-A92C-E8FFE24A7674}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,6 @@
     <sheet name="PriceVsS" sheetId="6" r:id="rId3"/>
     <sheet name="Greeks" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PriceVsS!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PriceVsS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PriceVsS!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PriceVsS!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PriceVsS!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PriceVsS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PriceVsS!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PriceVsS!$B$2:$B$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Valeur</t>
   </si>
@@ -132,9 +122,6 @@
     <t>T)</t>
   </si>
   <si>
-    <t>T0)</t>
-  </si>
-  <si>
     <t>Put</t>
   </si>
   <si>
@@ -166,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,7 +191,14 @@
     </font>
     <font>
       <sz val="14.75"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +365,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3360,15 +3354,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>92929</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>216828</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>123902</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>92925</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3378,7 +3372,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB7C279-03B7-F53E-19E6-F3218251810C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3400,7 +3394,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3439,15 +3433,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>72279</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>211251</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>61952</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>10325</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3457,7 +3451,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BC2DF1-37FB-6777-B500-1FE8ACAAAF84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3479,7 +3473,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3908,7 +3902,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3938,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3946,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -3960,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="9"/>
@@ -3982,8 +3976,10 @@
       <c r="B6" s="8">
         <v>100</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
       <c r="G6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3991,13 +3987,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4008,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4027,7 +4023,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4058,7 +4054,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1025" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ExportTablesToCSV" altText="Generer les fichiers inputs_x000a_">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ExportTwoTablesToCSV_VariableRows_MacFriendly" altText="Generer les fichiers inputs_x000a_">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
@@ -4080,7 +4076,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1027" r:id="rId4" name="Button 3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ImportThreeCSV">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ImportThreeCSVs_Simple">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
@@ -4108,26 +4104,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A726CB-F0C1-8F4F-9386-3A23B90BF00F}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
@@ -4135,7 +4128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>31.717199999999998</v>
       </c>
@@ -4143,7 +4136,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>33.4343</v>
       </c>
@@ -4151,7 +4144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35.151499999999999</v>
       </c>
@@ -4159,7 +4152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36.868699999999997</v>
       </c>
@@ -4167,7 +4160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38.585900000000002</v>
       </c>
@@ -4175,7 +4168,7 @@
         <v>-0.99999899999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40.302999999999997</v>
       </c>
@@ -4183,7 +4176,7 @@
         <v>-0.99999800000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>42.020200000000003</v>
       </c>
@@ -4191,7 +4184,7 @@
         <v>-0.99999400000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>43.737400000000001</v>
       </c>
@@ -4199,7 +4192,7 @@
         <v>-0.99998500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>45.454500000000003</v>
       </c>
@@ -4207,7 +4200,7 @@
         <v>-0.99996499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>47.171700000000001</v>
       </c>
@@ -4215,7 +4208,7 @@
         <v>-0.99992599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48.8889</v>
       </c>
@@ -4223,7 +4216,7 @@
         <v>-0.99985000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50.606099999999998</v>
       </c>
@@ -4231,7 +4224,7 @@
         <v>-0.99971500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>52.3232</v>
       </c>
@@ -4239,7 +4232,7 @@
         <v>-0.99948099999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>54.040399999999998</v>
       </c>
@@ -5795,22 +5788,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>52.046300000000002</v>
+        <v>15.9001</v>
       </c>
       <c r="B2">
-        <v>-0.99967099999999998</v>
+        <v>-0.71713800000000005</v>
       </c>
       <c r="C2">
-        <v>1.16025E-4</v>
+        <v>2.0828300000000001E-2</v>
       </c>
       <c r="D2">
-        <v>-103.03</v>
+        <v>-80.500200000000007</v>
       </c>
       <c r="E2">
-        <v>6.0338299999999997E-2</v>
+        <v>30.399899999999999</v>
       </c>
       <c r="F2">
-        <v>-3.0969199999999999</v>
+        <v>-5.4550599999999996</v>
       </c>
     </row>
   </sheetData>
